--- a/target/test-classes/testData/Mortgage Application Info.xlsx
+++ b/target/test-classes/testData/Mortgage Application Info.xlsx
@@ -3,37 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\OneDrive\Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC973D04-F065-4144-A9FA-B26EE6DC19C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{08FB7B7D-276A-4FAC-BEAE-B5ABCEC35A3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="21520" windowHeight="11586" xr2:uid="{D60F0554-7148-4B07-ACE5-B0FA8BBB026D}"/>
+    <workbookView xWindow="200" yWindow="5740" windowWidth="21547" windowHeight="12213" xr2:uid="{D60F0554-7148-4B07-ACE5-B0FA8BBB026D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="119">
   <si>
     <t>Realtor Info</t>
   </si>
@@ -44,9 +32,6 @@
     <t>DOWN PAYMENT AMOUNT</t>
   </si>
   <si>
-    <t>DOWN PAYMENT PERCENTAGE</t>
-  </si>
-  <si>
     <t>Borrower's FIRST NAME</t>
   </si>
   <si>
@@ -252,36 +237,6 @@
   </si>
   <si>
     <t>Lloyd Wimmers</t>
-  </si>
-  <si>
-    <t>21/06/1984</t>
-  </si>
-  <si>
-    <t>20/06/1984</t>
-  </si>
-  <si>
-    <t>17/04/1987</t>
-  </si>
-  <si>
-    <t>17/07/1991</t>
-  </si>
-  <si>
-    <t>25/07/1986</t>
-  </si>
-  <si>
-    <t>20/11/1990</t>
-  </si>
-  <si>
-    <t>25/06/1994</t>
-  </si>
-  <si>
-    <t>28/02/1991</t>
-  </si>
-  <si>
-    <t>23/11/1990</t>
-  </si>
-  <si>
-    <t>13/08/1984</t>
   </si>
   <si>
     <t>Married</t>
@@ -503,7 +458,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -530,6 +485,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -849,7 +805,7 @@
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2:Q11"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -857,20 +813,19 @@
     <col min="1" max="1" width="27.46875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.87890625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.8203125" customWidth="1"/>
-    <col min="4" max="4" width="10.5859375" customWidth="1"/>
-    <col min="5" max="5" width="19.5859375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.1171875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.05859375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.46875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.9375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14" customWidth="1"/>
-    <col min="11" max="11" width="19.76171875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.234375" customWidth="1"/>
-    <col min="13" max="13" width="25.87890625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.1171875" customWidth="1"/>
-    <col min="15" max="15" width="10.3515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.87890625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="27.46875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5859375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.1171875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.05859375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.46875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.9375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="19.76171875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.234375" customWidth="1"/>
+    <col min="12" max="12" width="25.87890625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.1171875" customWidth="1"/>
+    <col min="14" max="14" width="10.3515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.87890625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27.46875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.5">
@@ -883,7 +838,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -904,16 +859,16 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="5" t="s">
@@ -921,14 +876,11 @@
       </c>
       <c r="P1" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A2" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" s="13">
         <v>163084.48000000001</v>
@@ -936,52 +888,49 @@
       <c r="C2" s="16">
         <v>23682</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" t="s">
-        <v>80</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="K2" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="L2" s="20">
+      <c r="D2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="26">
+        <v>31828</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="K2" s="20">
         <v>1185</v>
       </c>
-      <c r="M2" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="N2" s="22">
+      <c r="L2" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="M2" s="22">
         <v>12327.84</v>
       </c>
-      <c r="O2" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="P2" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q2" s="25" t="s">
-        <v>62</v>
+      <c r="N2" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="O2" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="P2" s="25" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A3" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" s="13">
         <v>141748.35999999999</v>
@@ -989,52 +938,49 @@
       <c r="C3" s="16">
         <v>26162</v>
       </c>
-      <c r="D3">
-        <v>1.5</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="D3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="26">
+        <v>31100</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="K3" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="L3" s="20">
+      <c r="J3" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="K3" s="20">
         <v>4639</v>
       </c>
-      <c r="M3" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="N3" s="22">
+      <c r="L3" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="M3" s="22">
         <v>9674.34</v>
       </c>
-      <c r="O3" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="P3" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q3" s="25" t="s">
-        <v>63</v>
+      <c r="N3" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="O3" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="P3" s="25" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A4" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="13">
         <v>277570.33</v>
@@ -1042,52 +988,49 @@
       <c r="C4" s="16">
         <v>18136</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="D4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="26">
+        <v>34484</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="K4" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="L4" s="20">
+      <c r="J4" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="K4" s="20">
         <v>1542</v>
       </c>
-      <c r="M4" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="N4" s="22">
+      <c r="L4" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="M4" s="22">
         <v>8229.3799999999992</v>
       </c>
-      <c r="O4" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="P4" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q4" s="25" t="s">
-        <v>64</v>
+      <c r="N4" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="O4" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="P4" s="25" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A5" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" s="14">
         <v>134085.74</v>
@@ -1095,52 +1038,49 @@
       <c r="C5" s="16">
         <v>15628</v>
       </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="H5" t="s">
-        <v>75</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="K5" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="L5" s="20">
+      <c r="D5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="26">
+        <v>33881</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" s="20">
         <v>4210</v>
       </c>
-      <c r="M5" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="N5" s="22">
+      <c r="L5" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="M5" s="22">
         <v>9321.4500000000007</v>
       </c>
-      <c r="O5" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="P5" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q5" s="25" t="s">
-        <v>65</v>
+      <c r="N5" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="O5" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="P5" s="25" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A6" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B6" s="14">
         <v>115049.86</v>
@@ -1148,52 +1088,49 @@
       <c r="C6" s="16">
         <v>29273</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="H6" t="s">
-        <v>76</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="K6" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="L6" s="20">
+      <c r="D6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="26">
+        <v>33541</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" s="20">
         <v>983</v>
       </c>
-      <c r="M6" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="N6" s="22">
+      <c r="L6" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="M6" s="22">
         <v>4497.42</v>
       </c>
-      <c r="O6" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="P6" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q6" s="25" t="s">
-        <v>66</v>
+      <c r="N6" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="O6" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="P6" s="25" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A7" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B7" s="14">
         <v>275193.14</v>
@@ -1201,52 +1138,49 @@
       <c r="C7" s="16">
         <v>28541</v>
       </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="H7" t="s">
-        <v>77</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="K7" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="L7" s="20">
+      <c r="D7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="26">
+        <v>31239</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" s="20">
         <v>2437</v>
       </c>
-      <c r="M7" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="N7" s="22">
+      <c r="L7" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="M7" s="22">
         <v>9083.52</v>
       </c>
-      <c r="O7" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="P7" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q7" s="25" t="s">
-        <v>67</v>
+      <c r="N7" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="O7" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="P7" s="25" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A8" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B8" s="14">
         <v>217566.17</v>
@@ -1254,52 +1188,49 @@
       <c r="C8" s="16">
         <v>8071</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="H8" t="s">
-        <v>78</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="K8" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="L8" s="20">
+      <c r="D8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="26">
+        <v>33925</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="K8" s="20">
         <v>4755</v>
       </c>
-      <c r="M8" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="N8" s="22">
+      <c r="L8" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="M8" s="22">
         <v>10298.799999999999</v>
       </c>
-      <c r="O8" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="P8" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q8" s="25" t="s">
-        <v>126</v>
+      <c r="N8" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="O8" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="P8" s="25" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A9" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B9" s="14">
         <v>260343.79</v>
@@ -1307,52 +1238,49 @@
       <c r="C9" s="16">
         <v>16702</v>
       </c>
-      <c r="D9">
-        <v>1.5</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H9" t="s">
-        <v>79</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J9" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="K9" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="L9" s="20">
+      <c r="D9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="26">
+        <v>32356</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="K9" s="20">
         <v>4463</v>
       </c>
-      <c r="M9" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="N9" s="22">
+      <c r="L9" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="M9" s="22">
         <v>5463.94</v>
       </c>
-      <c r="O9" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="P9" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q9" s="25" t="s">
-        <v>127</v>
+      <c r="N9" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="O9" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="P9" s="25" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A10" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B10" s="15">
         <v>201083.01</v>
@@ -1360,52 +1288,49 @@
       <c r="C10" s="16">
         <v>18916</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="H10" t="s">
-        <v>81</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" s="18" t="s">
+      <c r="D10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="26">
+        <v>34090</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="J10" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="K10" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="L10" s="20">
+      <c r="K10" s="20">
         <v>2187</v>
       </c>
-      <c r="M10" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="N10" s="22">
+      <c r="L10" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="M10" s="22">
         <v>10634.37</v>
       </c>
-      <c r="O10" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="P10" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q10" s="25" t="s">
-        <v>128</v>
+      <c r="N10" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="O10" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="P10" s="25" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A11" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B11" s="15">
         <v>284208.92</v>
@@ -1413,66 +1338,63 @@
       <c r="C11" s="16">
         <v>4119</v>
       </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="H11" t="s">
-        <v>82</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="K11" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="L11" s="18">
+      <c r="D11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="26">
+        <v>32552</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="K11" s="18">
         <v>1850</v>
       </c>
-      <c r="M11" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="N11" s="22">
+      <c r="L11" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="M11" s="22">
         <v>4738.3900000000003</v>
       </c>
-      <c r="O11" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="P11" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q11" s="25" t="s">
-        <v>129</v>
+      <c r="N11" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="O11" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="P11" s="25" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A12" s="11"/>
       <c r="B12" s="15"/>
-      <c r="H12" s="17"/>
-      <c r="M12" s="21"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="24"/>
+      <c r="G12" s="17"/>
+      <c r="L12" s="21"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="24"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A13" s="10"/>
-      <c r="H13" s="17"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="24"/>
+      <c r="G13" s="17"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="24"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="H14" s="17"/>
-      <c r="O14" s="23"/>
+      <c r="G14" s="17"/>
+      <c r="N14" s="23"/>
     </row>
   </sheetData>
   <hyperlinks>
